--- a/Technical_Interview_Data.xlsx
+++ b/Technical_Interview_Data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\won241\Documents\Interviews\Coding_Whiteboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCED4F83-C084-4935-B576-6970D57A520C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93DC0A9-B7A1-49EA-B85C-152E975D326B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E01E1600-EFCC-471E-A05C-7312CEC1C8A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E01E1600-EFCC-471E-A05C-7312CEC1C8A5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Driver Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Performance" sheetId="1" r:id="rId1"/>
     <sheet name="Vehicle Value" sheetId="3" r:id="rId2"/>
     <sheet name="VIN" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -564,26 +564,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6FAA98-0C06-42A4-9B0D-23D7B62F4718}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -618,7 +616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15635</v>
       </c>
@@ -653,7 +651,7 @@
         <v>6829</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15635</v>
       </c>
@@ -688,7 +686,7 @@
         <v>6829</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15635</v>
       </c>
@@ -723,7 +721,7 @@
         <v>6829</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15635</v>
       </c>
@@ -758,7 +756,7 @@
         <v>6829</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15635</v>
       </c>
@@ -793,7 +791,7 @@
         <v>6829</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15635</v>
       </c>
@@ -828,7 +826,7 @@
         <v>6829</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15635</v>
       </c>
@@ -863,7 +861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15635</v>
       </c>
@@ -898,7 +896,7 @@
         <v>6829</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>169743</v>
       </c>
@@ -933,7 +931,7 @@
         <v>5293</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>169743</v>
       </c>
@@ -968,7 +966,7 @@
         <v>5293</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>169743</v>
       </c>
@@ -1003,7 +1001,7 @@
         <v>5293</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>169743</v>
       </c>
@@ -1038,7 +1036,7 @@
         <v>5293</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>169743</v>
       </c>
@@ -1073,7 +1071,7 @@
         <v>5293</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>749873</v>
       </c>
@@ -1108,7 +1106,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>749873</v>
       </c>
@@ -1143,7 +1141,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>749873</v>
       </c>
@@ -1178,7 +1176,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>749873</v>
       </c>
@@ -1213,7 +1211,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>749873</v>
       </c>
@@ -1248,7 +1246,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>749873</v>
       </c>
@@ -1283,7 +1281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>749873</v>
       </c>
@@ -1318,7 +1316,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2054688</v>
       </c>
@@ -1353,7 +1351,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2054688</v>
       </c>
@@ -1388,7 +1386,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2054688</v>
       </c>
@@ -1423,7 +1421,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2054688</v>
       </c>
@@ -1458,7 +1456,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2054688</v>
       </c>
@@ -1493,7 +1491,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2054688</v>
       </c>
@@ -1528,7 +1526,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2054688</v>
       </c>
@@ -1563,7 +1561,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2054688</v>
       </c>
@@ -1598,7 +1596,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2054688</v>
       </c>
@@ -1633,7 +1631,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2054688</v>
       </c>
@@ -1668,31 +1666,31 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1702,10 +1700,10 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
     </row>
   </sheetData>
@@ -1726,13 +1724,13 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.1796875" style="8"/>
+    <col min="1" max="4" width="9.140625" style="8"/>
     <col min="5" max="5" width="12" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -1749,7 +1747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -1766,7 +1764,7 @@
         <v>7250</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -1784,7 +1782,7 @@
         <v>7219.791666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -1802,7 +1800,7 @@
         <v>7189.7092013888896</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1820,7 +1818,7 @@
         <v>7159.7520797164361</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
@@ -1838,7 +1836,7 @@
         <v>7129.9197793842841</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -1856,7 +1854,7 @@
         <v>7100.2117803035162</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
@@ -1874,7 +1872,7 @@
         <v>7070.6275645522519</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1891,7 +1889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1908,7 +1906,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
@@ -1926,7 +1924,7 @@
         <v>2408.9208333333336</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
@@ -1944,7 +1942,7 @@
         <v>2398.8836631944446</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -1961,7 +1959,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1979,7 +1977,7 @@
         <v>11134.666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1997,7 +1995,7 @@
         <v>11069.714444444444</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
@@ -2014,7 +2012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -2031,7 +2029,7 @@
         <v>7669</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
@@ -2048,7 +2046,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>25</v>
       </c>
@@ -2066,7 +2064,7 @@
         <v>17310.416666666668</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -2084,7 +2082,7 @@
         <v>17122.887152777777</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
@@ -2101,7 +2099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>25</v>
       </c>
@@ -2135,15 +2133,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2163,7 +2161,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1389528521895</v>
       </c>
@@ -2183,7 +2181,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1520859172889</v>
       </c>
@@ -2203,7 +2201,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1897582710323</v>
       </c>

--- a/Technical_Interview_Data.xlsx
+++ b/Technical_Interview_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\won241\Documents\Interviews\Coding_Whiteboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93DC0A9-B7A1-49EA-B85C-152E975D326B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C86FDCE-67F3-4DED-8CA7-B7EA01519244}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E01E1600-EFCC-471E-A05C-7312CEC1C8A5}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E01E1600-EFCC-471E-A05C-7312CEC1C8A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -240,12 +239,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -562,71 +568,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6FAA98-0C06-42A4-9B0D-23D7B62F4718}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>15635</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="13">
         <v>43101</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>5000</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>5000</v>
       </c>
       <c r="E2" t="s">
@@ -635,7 +643,7 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" t="s">
@@ -644,24 +652,24 @@
       <c r="I2">
         <v>23231</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>1389528521895</v>
       </c>
       <c r="K2">
         <v>6829</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>15635</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="14">
         <v>43132</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>4700</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>5000</v>
       </c>
       <c r="E3" t="s">
@@ -670,7 +678,7 @@
       <c r="F3">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H3" t="s">
@@ -679,24 +687,24 @@
       <c r="I3">
         <v>23231</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>1389528521895</v>
       </c>
       <c r="K3">
         <v>6829</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>15635</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="14">
         <v>43191</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>5000</v>
       </c>
       <c r="E4" t="s">
@@ -705,7 +713,7 @@
       <c r="F4">
         <v>61</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" t="s">
@@ -714,33 +722,33 @@
       <c r="I4">
         <v>23231</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>1389528521895</v>
       </c>
       <c r="K4">
         <v>6829</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>15635</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="13">
         <v>43221</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>4650</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>5000</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>91</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>2</v>
       </c>
       <c r="H5" t="s">
@@ -749,33 +757,33 @@
       <c r="I5">
         <v>23231</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>1389528521895</v>
       </c>
       <c r="K5">
         <v>6829</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>15635</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="13">
         <v>43252</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>5000</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>122</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>3</v>
       </c>
       <c r="H6" t="s">
@@ -784,33 +792,33 @@
       <c r="I6">
         <v>23231</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>1389528521895</v>
       </c>
       <c r="K6">
         <v>6829</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>15635</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="13">
         <v>43282</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>5000</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>92</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>4</v>
       </c>
       <c r="H7" t="s">
@@ -819,59 +827,59 @@
       <c r="I7">
         <v>23231</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>1389528521895</v>
       </c>
       <c r="K7">
         <v>6829</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>15635</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>15635</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="13">
         <v>43800</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>2754</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>5000</v>
       </c>
       <c r="E9" t="s">
@@ -880,33 +888,33 @@
       <c r="F9">
         <v>310</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>23231</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>1389528521895</v>
       </c>
       <c r="K9">
         <v>6829</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>169743</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="13">
         <v>43678</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>3000</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>3000</v>
       </c>
       <c r="E10" t="s">
@@ -915,7 +923,7 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" t="s">
@@ -924,24 +932,24 @@
       <c r="I10">
         <v>75023</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>1520859172889</v>
       </c>
       <c r="K10">
         <v>5293</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>169743</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="13">
         <v>43709</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>2850</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
@@ -950,7 +958,7 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" t="s">
@@ -959,24 +967,24 @@
       <c r="I11">
         <v>75023</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>1520859172889</v>
       </c>
       <c r="K11">
         <v>5293</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>169743</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="13">
         <v>43739</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>2700</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>3000</v>
       </c>
       <c r="E12" t="s">
@@ -985,7 +993,7 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H12" t="s">
@@ -994,24 +1002,24 @@
       <c r="I12">
         <v>75023</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>1520859172889</v>
       </c>
       <c r="K12">
         <v>5293</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>169743</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="13">
         <v>43770</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>2550</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>3000</v>
       </c>
       <c r="E13" t="s">
@@ -1020,7 +1028,7 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" t="s">
@@ -1029,24 +1037,24 @@
       <c r="I13">
         <v>75023</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>1520859172889</v>
       </c>
       <c r="K13">
         <v>5293</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>169743</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="13">
         <v>43800</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>2400</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>3000</v>
       </c>
       <c r="E14" t="s">
@@ -1055,7 +1063,7 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" t="s">
@@ -1064,24 +1072,24 @@
       <c r="I14">
         <v>75023</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>1520859172889</v>
       </c>
       <c r="K14">
         <v>5293</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>749873</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="13">
         <v>43009</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>10000</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>10000</v>
       </c>
       <c r="E15" t="s">
@@ -1090,7 +1098,7 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" t="s">
@@ -1099,24 +1107,24 @@
       <c r="I15">
         <v>13901</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K15">
         <v>15500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>749873</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="13">
         <v>43040</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>9640</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>10000</v>
       </c>
       <c r="E16" t="s">
@@ -1125,7 +1133,7 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="H16" t="s">
@@ -1134,24 +1142,24 @@
       <c r="I16">
         <v>13901</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K16">
         <v>15500</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>749873</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="13">
         <v>43070</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>9280</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>10000</v>
       </c>
       <c r="E17" t="s">
@@ -1160,7 +1168,7 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" t="s">
@@ -1169,24 +1177,24 @@
       <c r="I17">
         <v>13901</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K17">
         <v>15500</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>749873</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="13">
         <v>43132</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>8920</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
@@ -1195,7 +1203,7 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" t="s">
@@ -1204,24 +1212,24 @@
       <c r="I18">
         <v>13901</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K18">
         <v>15500</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>749873</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="13">
         <v>43525</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>8560</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>10000</v>
       </c>
       <c r="E19" t="s">
@@ -1230,7 +1238,7 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>0</v>
       </c>
       <c r="H19" t="s">
@@ -1239,59 +1247,59 @@
       <c r="I19">
         <v>13901</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K19">
         <v>15500</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>749873</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>749873</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="13">
         <v>43800</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>5210</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>10000</v>
       </c>
       <c r="E21" t="s">
@@ -1300,7 +1308,7 @@
       <c r="F21">
         <v>198</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>13</v>
       </c>
       <c r="H21" t="s">
@@ -1309,24 +1317,24 @@
       <c r="I21">
         <v>13901</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K21">
         <v>15500</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2054688</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="13">
         <v>43525</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>3500</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>3500</v>
       </c>
       <c r="E22" t="s">
@@ -1335,7 +1343,7 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" t="s">
@@ -1344,24 +1352,24 @@
       <c r="I22">
         <v>20026</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>1897582710323</v>
       </c>
       <c r="K22">
         <v>4950</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2054688</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="13">
         <v>43556</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>3500</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>3500</v>
       </c>
       <c r="E23" t="s">
@@ -1370,7 +1378,7 @@
       <c r="F23">
         <v>32</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>1</v>
       </c>
       <c r="H23" t="s">
@@ -1379,24 +1387,24 @@
       <c r="I23">
         <v>20026</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>1897582710323</v>
       </c>
       <c r="K23">
         <v>4950</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2054688</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="13">
         <v>43586</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>3000</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>3500</v>
       </c>
       <c r="E24" t="s">
@@ -1405,7 +1413,7 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>1</v>
       </c>
       <c r="H24" t="s">
@@ -1414,24 +1422,24 @@
       <c r="I24">
         <v>20026</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>1897582710323</v>
       </c>
       <c r="K24">
         <v>4950</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2054688</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="13">
         <v>43617</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>2500</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>3500</v>
       </c>
       <c r="E25" t="s">
@@ -1440,7 +1448,7 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>1</v>
       </c>
       <c r="H25" t="s">
@@ -1449,24 +1457,24 @@
       <c r="I25">
         <v>20026</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>1897582710323</v>
       </c>
       <c r="K25">
         <v>4950</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2054688</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="13">
         <v>43617</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>2000</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>3500</v>
       </c>
       <c r="E26" t="s">
@@ -1475,7 +1483,7 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H26" t="s">
@@ -1484,24 +1492,24 @@
       <c r="I26">
         <v>20026</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>1897582710323</v>
       </c>
       <c r="K26">
         <v>4950</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2054688</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="13">
         <v>43647</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>1500</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>3500</v>
       </c>
       <c r="E27" t="s">
@@ -1510,7 +1518,7 @@
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>1</v>
       </c>
       <c r="H27" t="s">
@@ -1519,24 +1527,24 @@
       <c r="I27">
         <v>20026</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>1897582710323</v>
       </c>
       <c r="K27">
         <v>4950</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2054688</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="13">
         <v>43678</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>1000</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>3500</v>
       </c>
       <c r="E28" t="s">
@@ -1545,7 +1553,7 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <v>1</v>
       </c>
       <c r="H28" t="s">
@@ -1554,24 +1562,24 @@
       <c r="I28">
         <v>20026</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>1897582710323</v>
       </c>
       <c r="K28">
         <v>4950</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2054688</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="13">
         <v>43739</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>500</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>3500</v>
       </c>
       <c r="E29" t="s">
@@ -1580,7 +1588,7 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>1</v>
       </c>
       <c r="H29" t="s">
@@ -1589,24 +1597,24 @@
       <c r="I29">
         <v>20026</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>1897582710323</v>
       </c>
       <c r="K29">
         <v>4950</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2054688</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="13">
         <v>43770</v>
       </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
         <v>3500</v>
       </c>
       <c r="E30" t="s">
@@ -1615,7 +1623,7 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>1</v>
       </c>
       <c r="H30" t="s">
@@ -1624,24 +1632,24 @@
       <c r="I30">
         <v>20026</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <v>1897582710323</v>
       </c>
       <c r="K30">
         <v>4950</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2054688</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="13">
         <v>43800</v>
       </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
         <v>3500</v>
       </c>
       <c r="E31" t="s">
@@ -1650,7 +1658,7 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>1</v>
       </c>
       <c r="H31" t="s">
@@ -1659,52 +1667,22 @@
       <c r="I31">
         <v>20026</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <v>1897582710323</v>
       </c>
       <c r="K31">
         <v>4950</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="15"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1724,395 +1702,395 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="8"/>
-    <col min="5" max="5" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.1796875" style="7"/>
+    <col min="5" max="5" width="12" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>2005</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>38353</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>7250</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>2005</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>38384</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f>E2*(1-0.05/12)</f>
         <v>7219.791666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>2005</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>38412</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f t="shared" ref="E4:E8" si="0">E3*(1-0.05/12)</f>
         <v>7189.7092013888896</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>2005</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>38443</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>7159.7520797164361</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>2005</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>38473</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>7129.9197793842841</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2005</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>38504</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>7100.2117803035162</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2005</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>38534</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>7070.6275645522519</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>2005</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>43739</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>2419</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>2005</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>43770</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <f t="shared" ref="E11:E12" si="1">E10*(1-0.05/12)</f>
         <v>2408.9208333333336</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>2005</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>43800</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f t="shared" si="1"/>
         <v>2398.8836631944446</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>2010</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>40179</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>11200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>2010</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>40210</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f>E13*(1-0.07/12)</f>
         <v>11134.666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>2010</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>40238</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f>E14*(1-0.07/12)</f>
         <v>11069.714444444444</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>2010</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>43800</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>7669</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>2017</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>42736</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>17500</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>2017</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>42767</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <f>E18*(1-0.13/12)</f>
         <v>17310.416666666668</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>2017</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>42795</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <f>E19*(1-0.13/12)</f>
         <v>17122.887152777777</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>2017</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>43800</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>15293</v>
       </c>
     </row>
@@ -2133,15 +2111,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2161,8 +2139,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
         <v>1389528521895</v>
       </c>
       <c r="B2" t="s">
@@ -2181,8 +2159,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>1520859172889</v>
       </c>
       <c r="B3" t="s">
@@ -2201,8 +2179,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>1897582710323</v>
       </c>
       <c r="B4" t="s">
